--- a/medicine/Handicap/Institution_sociale_ou_médico-sociale/Institution_sociale_ou_médico-sociale.xlsx
+++ b/medicine/Handicap/Institution_sociale_ou_médico-sociale/Institution_sociale_ou_médico-sociale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institution_sociale_ou_m%C3%A9dico-sociale</t>
+          <t>Institution_sociale_ou_médico-sociale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Une institution sociale ou médico-sociale est, en France, une personne juridique à qui une ou plusieurs administrations publiques ont délivré une autorisation en vue d'exercer l'activité d'un établissement ou service social ou médico-social.
-Depuis la loi n° 2002-2 du 2 janvier 2002 rénovant l'action sociale et médico-sociale[1], l'expression ne désigne plus l'établissement ou le service lui-même mais exclusivement son organisme gestionnaire.
+Depuis la loi n° 2002-2 du 2 janvier 2002 rénovant l'action sociale et médico-sociale, l'expression ne désigne plus l'établissement ou le service lui-même mais exclusivement son organisme gestionnaire.
 Une institution sociale ou médico-sociale peut être :
 de droit privé : non lucrative (association, union d'associations, fondation, coopérative) ou lucrative (société commerciale) ;
 de droit public : centre communal ou intercommunal d'action sociale, établissement public personnalisé, collectivité territoriale, établissement public de coopération intercommunale.</t>
